--- a/vendor_map.xlsx
+++ b/vendor_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rygarcorp.com\shares\Cornerstone\Garretts Reports\Sales Report App\Excell Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B70BA7-E273-48C8-B2D5-1B068031B695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A295C6C-A9F7-4477-9809-33C0CBAAA3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21390" xr2:uid="{5542AD97-7A4C-4C40-ABF5-82E45C8FC76F}"/>
+    <workbookView xWindow="76680" yWindow="-825" windowWidth="29040" windowHeight="15990" xr2:uid="{5542AD97-7A4C-4C40-ABF5-82E45C8FC76F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="306">
   <si>
     <t>BGC10</t>
   </si>
@@ -913,6 +913,36 @@
   </si>
   <si>
     <t>SD 1.9oz</t>
+  </si>
+  <si>
+    <t>KMG20</t>
+  </si>
+  <si>
+    <t>KMG22</t>
+  </si>
+  <si>
+    <t>KMG24</t>
+  </si>
+  <si>
+    <t>KMG26</t>
+  </si>
+  <si>
+    <t>KMG30</t>
+  </si>
+  <si>
+    <t>KMG36</t>
+  </si>
+  <si>
+    <t>WO32oz</t>
+  </si>
+  <si>
+    <t>WSPRO2pk</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Fucntion 101</t>
   </si>
 </sst>
 </file>
@@ -1310,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6055176-08B8-4018-B9DF-7F26AB5DB49D}">
-  <dimension ref="A1:K542"/>
+  <dimension ref="A1:K595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
-      <selection activeCell="C526" sqref="C526"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,7 +2188,7 @@
         <v>19.95</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
+        <v>305</v>
       </c>
       <c r="K56" s="3"/>
     </row>
@@ -2173,7 +2203,7 @@
         <v>19.95</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>305</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -2188,7 +2218,7 @@
         <v>19.95</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>305</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -2203,7 +2233,7 @@
         <v>19.95</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>305</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -2218,7 +2248,7 @@
         <v>19.95</v>
       </c>
       <c r="D60" t="s">
-        <v>170</v>
+        <v>305</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -2233,7 +2263,7 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>305</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2248,7 +2278,7 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>170</v>
+        <v>305</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -7864,18 +7894,18 @@
         <v>163</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
-        <v>244</v>
-      </c>
-      <c r="B475" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C475" s="6">
-        <v>9.92</v>
-      </c>
-      <c r="D475" t="s">
-        <v>246</v>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>243</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C473" s="6">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="D473" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -7883,13 +7913,13 @@
         <v>244</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="C476" s="6">
-        <v>47.95</v>
+        <v>9.92</v>
       </c>
       <c r="D476" t="s">
-        <v>154</v>
+        <v>246</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -7897,10 +7927,10 @@
         <v>244</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C477" s="6">
-        <v>55.73</v>
+        <v>47.95</v>
       </c>
       <c r="D477" t="s">
         <v>154</v>
@@ -7911,10 +7941,10 @@
         <v>244</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C478" s="6">
-        <v>79.06</v>
+        <v>55.73</v>
       </c>
       <c r="D478" t="s">
         <v>154</v>
@@ -7925,10 +7955,10 @@
         <v>244</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C479" s="6">
-        <v>108.86</v>
+        <v>79.06</v>
       </c>
       <c r="D479" t="s">
         <v>154</v>
@@ -7939,10 +7969,10 @@
         <v>244</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C480" s="6">
-        <v>101.09</v>
+        <v>108.86</v>
       </c>
       <c r="D480" t="s">
         <v>154</v>
@@ -7953,10 +7983,10 @@
         <v>244</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C481" s="6">
-        <v>160.69999999999999</v>
+        <v>101.09</v>
       </c>
       <c r="D481" t="s">
         <v>154</v>
@@ -7967,10 +7997,10 @@
         <v>244</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C482" s="6">
-        <v>121.82</v>
+        <v>160.69999999999999</v>
       </c>
       <c r="D482" t="s">
         <v>154</v>
@@ -7981,10 +8011,10 @@
         <v>244</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C483" s="6">
-        <v>122.49</v>
+        <v>121.82</v>
       </c>
       <c r="D483" t="s">
         <v>154</v>
@@ -7995,7 +8025,10 @@
         <v>244</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C484" s="6">
+        <v>122.49</v>
       </c>
       <c r="D484" t="s">
         <v>154</v>
@@ -8006,7 +8039,7 @@
         <v>244</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D485" t="s">
         <v>154</v>
@@ -8017,7 +8050,7 @@
         <v>244</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D486" t="s">
         <v>154</v>
@@ -8028,10 +8061,7 @@
         <v>244</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C487" s="6">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D487" t="s">
         <v>154</v>
@@ -8042,10 +8072,10 @@
         <v>244</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C488" s="6">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D488" t="s">
         <v>154</v>
@@ -8056,10 +8086,10 @@
         <v>244</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C489" s="6">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D489" t="s">
         <v>154</v>
@@ -8070,18 +8100,21 @@
         <v>244</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>107</v>
+        <v>242</v>
+      </c>
+      <c r="C490" s="6">
+        <v>79</v>
       </c>
       <c r="D490" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>244</v>
       </c>
-      <c r="B491" s="3">
-        <v>4430</v>
+      <c r="B491" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="D491" t="s">
         <v>163</v>
@@ -8092,10 +8125,7 @@
         <v>244</v>
       </c>
       <c r="B492" s="3">
-        <v>4442</v>
-      </c>
-      <c r="C492" s="6">
-        <v>15</v>
+        <v>4430</v>
       </c>
       <c r="D492" t="s">
         <v>163</v>
@@ -8105,11 +8135,11 @@
       <c r="A493" t="s">
         <v>244</v>
       </c>
-      <c r="B493" s="3" t="s">
-        <v>111</v>
+      <c r="B493" s="3">
+        <v>4442</v>
       </c>
       <c r="C493" s="6">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="D493" t="s">
         <v>163</v>
@@ -8120,7 +8150,10 @@
         <v>244</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="C494" s="6">
+        <v>171</v>
       </c>
       <c r="D494" t="s">
         <v>163</v>
@@ -8130,11 +8163,8 @@
       <c r="A495" t="s">
         <v>244</v>
       </c>
-      <c r="B495" s="3">
-        <v>4642</v>
-      </c>
-      <c r="C495" s="6">
-        <v>16.5</v>
+      <c r="B495" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="D495" t="s">
         <v>163</v>
@@ -8144,11 +8174,11 @@
       <c r="A496" t="s">
         <v>244</v>
       </c>
-      <c r="B496" s="3" t="s">
-        <v>113</v>
+      <c r="B496" s="3">
+        <v>4642</v>
       </c>
       <c r="C496" s="6">
-        <v>126</v>
+        <v>16.5</v>
       </c>
       <c r="D496" t="s">
         <v>163</v>
@@ -8158,11 +8188,11 @@
       <c r="A497" t="s">
         <v>244</v>
       </c>
-      <c r="B497" s="3">
-        <v>4660</v>
+      <c r="B497" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="C497" s="6">
-        <v>20.25</v>
+        <v>126</v>
       </c>
       <c r="D497" t="s">
         <v>163</v>
@@ -8173,7 +8203,10 @@
         <v>244</v>
       </c>
       <c r="B498" s="3">
-        <v>6630</v>
+        <v>4660</v>
+      </c>
+      <c r="C498" s="6">
+        <v>20.25</v>
       </c>
       <c r="D498" t="s">
         <v>163</v>
@@ -8184,10 +8217,7 @@
         <v>244</v>
       </c>
       <c r="B499" s="3">
-        <v>6642</v>
-      </c>
-      <c r="C499" s="6">
-        <v>18.5</v>
+        <v>6630</v>
       </c>
       <c r="D499" t="s">
         <v>163</v>
@@ -8197,11 +8227,11 @@
       <c r="A500" t="s">
         <v>244</v>
       </c>
-      <c r="B500" s="3" t="s">
-        <v>114</v>
+      <c r="B500" s="3">
+        <v>6642</v>
       </c>
       <c r="C500" s="6">
-        <v>103.5</v>
+        <v>18.5</v>
       </c>
       <c r="D500" t="s">
         <v>163</v>
@@ -8211,11 +8241,11 @@
       <c r="A501" t="s">
         <v>244</v>
       </c>
-      <c r="B501" s="3">
-        <v>6660</v>
+      <c r="B501" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C501" s="6">
-        <v>22.5</v>
+        <v>103.5</v>
       </c>
       <c r="D501" t="s">
         <v>163</v>
@@ -8225,11 +8255,11 @@
       <c r="A502" t="s">
         <v>244</v>
       </c>
-      <c r="B502" s="3" t="s">
-        <v>115</v>
+      <c r="B502" s="3">
+        <v>6660</v>
       </c>
       <c r="C502" s="6">
-        <v>126</v>
+        <v>22.5</v>
       </c>
       <c r="D502" t="s">
         <v>163</v>
@@ -8239,21 +8269,24 @@
       <c r="A503" t="s">
         <v>244</v>
       </c>
-      <c r="B503" s="3">
-        <v>8860</v>
+      <c r="B503" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C503" s="6">
+        <v>126</v>
       </c>
       <c r="D503" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
-        <v>247</v>
-      </c>
-      <c r="B506" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D506" t="s">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>244</v>
+      </c>
+      <c r="B504" s="3">
+        <v>8860</v>
+      </c>
+      <c r="D504" t="s">
         <v>163</v>
       </c>
     </row>
@@ -8261,11 +8294,8 @@
       <c r="A507" t="s">
         <v>247</v>
       </c>
-      <c r="B507" s="3">
-        <v>4430</v>
-      </c>
-      <c r="C507" s="6">
-        <v>15.25</v>
+      <c r="B507" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="D507" t="s">
         <v>163</v>
@@ -8276,10 +8306,10 @@
         <v>247</v>
       </c>
       <c r="B508" s="3">
-        <v>4442</v>
+        <v>4430</v>
       </c>
       <c r="C508" s="6">
-        <v>15</v>
+        <v>15.25</v>
       </c>
       <c r="D508" t="s">
         <v>163</v>
@@ -8289,11 +8319,11 @@
       <c r="A509" t="s">
         <v>247</v>
       </c>
-      <c r="B509" s="3" t="s">
-        <v>111</v>
+      <c r="B509" s="3">
+        <v>4442</v>
       </c>
       <c r="C509" s="6">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="D509" t="s">
         <v>163</v>
@@ -8304,10 +8334,10 @@
         <v>247</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C510" s="6">
-        <v>972</v>
+        <v>171</v>
       </c>
       <c r="D510" t="s">
         <v>163</v>
@@ -8317,11 +8347,11 @@
       <c r="A511" t="s">
         <v>247</v>
       </c>
-      <c r="B511" s="3">
-        <v>4642</v>
+      <c r="B511" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C511" s="6">
-        <v>16.5</v>
+        <v>972</v>
       </c>
       <c r="D511" t="s">
         <v>163</v>
@@ -8331,11 +8361,11 @@
       <c r="A512" t="s">
         <v>247</v>
       </c>
-      <c r="B512" s="3" t="s">
-        <v>113</v>
+      <c r="B512" s="3">
+        <v>4642</v>
       </c>
       <c r="C512" s="6">
-        <v>126</v>
+        <v>16.5</v>
       </c>
       <c r="D512" t="s">
         <v>163</v>
@@ -8345,11 +8375,11 @@
       <c r="A513" t="s">
         <v>247</v>
       </c>
-      <c r="B513" s="3">
-        <v>4660</v>
+      <c r="B513" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="C513" s="6">
-        <v>20.25</v>
+        <v>126</v>
       </c>
       <c r="D513" t="s">
         <v>163</v>
@@ -8360,10 +8390,10 @@
         <v>247</v>
       </c>
       <c r="B514" s="3">
-        <v>6630</v>
+        <v>4660</v>
       </c>
       <c r="C514" s="6">
-        <v>19</v>
+        <v>20.25</v>
       </c>
       <c r="D514" t="s">
         <v>163</v>
@@ -8374,10 +8404,10 @@
         <v>247</v>
       </c>
       <c r="B515" s="3">
-        <v>6642</v>
+        <v>6630</v>
       </c>
       <c r="C515" s="6">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="D515" t="s">
         <v>163</v>
@@ -8387,11 +8417,11 @@
       <c r="A516" t="s">
         <v>247</v>
       </c>
-      <c r="B516" s="3" t="s">
-        <v>114</v>
+      <c r="B516" s="3">
+        <v>6642</v>
       </c>
       <c r="C516" s="6">
-        <v>103.5</v>
+        <v>18.5</v>
       </c>
       <c r="D516" t="s">
         <v>163</v>
@@ -8401,11 +8431,11 @@
       <c r="A517" t="s">
         <v>247</v>
       </c>
-      <c r="B517" s="3">
-        <v>6660</v>
+      <c r="B517" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C517" s="6">
-        <v>22.5</v>
+        <v>103.5</v>
       </c>
       <c r="D517" t="s">
         <v>163</v>
@@ -8415,11 +8445,11 @@
       <c r="A518" t="s">
         <v>247</v>
       </c>
-      <c r="B518" s="3" t="s">
-        <v>115</v>
+      <c r="B518" s="3">
+        <v>6660</v>
       </c>
       <c r="C518" s="6">
-        <v>126</v>
+        <v>22.5</v>
       </c>
       <c r="D518" t="s">
         <v>163</v>
@@ -8429,28 +8459,28 @@
       <c r="A519" t="s">
         <v>247</v>
       </c>
-      <c r="B519" s="3">
-        <v>8860</v>
+      <c r="B519" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C519" s="6">
-        <v>42.25</v>
+        <v>126</v>
       </c>
       <c r="D519" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
-        <v>291</v>
-      </c>
-      <c r="B524" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C524" s="6">
-        <v>41.99</v>
-      </c>
-      <c r="D524" t="s">
-        <v>165</v>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>247</v>
+      </c>
+      <c r="B520" s="3">
+        <v>8860</v>
+      </c>
+      <c r="C520" s="6">
+        <v>42.25</v>
+      </c>
+      <c r="D520" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -8458,27 +8488,27 @@
         <v>291</v>
       </c>
       <c r="B525" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C525" s="6">
+        <v>41.99</v>
+      </c>
+      <c r="D525" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>291</v>
+      </c>
+      <c r="B526" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C525" s="6">
+      <c r="C526" s="6">
         <v>82</v>
       </c>
-      <c r="D525" t="s">
+      <c r="D526" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
-        <v>159</v>
-      </c>
-      <c r="B527" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C527" s="6">
-        <v>29.87</v>
-      </c>
-      <c r="D527" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -8486,13 +8516,13 @@
         <v>159</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C528" s="6">
-        <v>199</v>
+        <v>29.87</v>
       </c>
       <c r="D528" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -8500,13 +8530,13 @@
         <v>159</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C529" s="6">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="D529" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -8514,10 +8544,10 @@
         <v>159</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C530" s="6">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D530" t="s">
         <v>157</v>
@@ -8528,10 +8558,10 @@
         <v>159</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C531" s="6">
-        <v>309</v>
+        <v>189</v>
       </c>
       <c r="D531" t="s">
         <v>157</v>
@@ -8542,13 +8572,13 @@
         <v>159</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C532" s="6">
-        <v>175</v>
+        <v>309</v>
       </c>
       <c r="D532" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -8556,10 +8586,10 @@
         <v>159</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="C533" s="6">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="D533" t="s">
         <v>159</v>
@@ -8570,13 +8600,13 @@
         <v>159</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="C534" s="6">
-        <v>59.99</v>
+        <v>134</v>
       </c>
       <c r="D534" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -8584,10 +8614,10 @@
         <v>159</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>271</v>
+        <v>72</v>
       </c>
       <c r="C535" s="6">
-        <v>32.99</v>
+        <v>59.99</v>
       </c>
       <c r="D535" t="s">
         <v>160</v>
@@ -8598,10 +8628,10 @@
         <v>159</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>73</v>
+        <v>271</v>
       </c>
       <c r="C536" s="6">
-        <v>129</v>
+        <v>32.99</v>
       </c>
       <c r="D536" t="s">
         <v>160</v>
@@ -8612,10 +8642,10 @@
         <v>159</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>272</v>
+        <v>73</v>
       </c>
       <c r="C537" s="6">
-        <v>149.99</v>
+        <v>129</v>
       </c>
       <c r="D537" t="s">
         <v>160</v>
@@ -8626,13 +8656,13 @@
         <v>159</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="C538" s="6">
-        <v>47.99</v>
+        <v>149.99</v>
       </c>
       <c r="D538" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -8640,10 +8670,10 @@
         <v>159</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C539" s="6">
-        <v>39.99</v>
+        <v>47.99</v>
       </c>
       <c r="D539" t="s">
         <v>161</v>
@@ -8654,13 +8684,13 @@
         <v>159</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="C540" s="6">
         <v>39.99</v>
       </c>
       <c r="D540" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -8668,7 +8698,10 @@
         <v>159</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="C541" s="6">
+        <v>39.99</v>
       </c>
       <c r="D541" t="s">
         <v>166</v>
@@ -8679,13 +8712,583 @@
         <v>159</v>
       </c>
       <c r="B542" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D542" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>159</v>
+      </c>
+      <c r="B543" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C542" s="6">
+      <c r="C543" s="6">
         <v>36.950000000000003</v>
       </c>
-      <c r="D542" t="s">
+      <c r="D543" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>304</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D546" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>304</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D547" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>304</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D548" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>304</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D549" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>304</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D550" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>304</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D551" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>304</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D552" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>304</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C553" s="6">
+        <v>215</v>
+      </c>
+      <c r="D553" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>304</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D554" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>304</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D555" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>304</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D556" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>304</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D557" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>304</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D558" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>304</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D559" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>304</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D560" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>304</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D561" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>304</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D562" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>304</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D563" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>304</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D564" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>304</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D565" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>304</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D566" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>304</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D567" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>304</v>
+      </c>
+      <c r="B568" s="3">
+        <v>6102</v>
+      </c>
+      <c r="D568" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>304</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D569" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>304</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D570" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>304</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D571" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>304</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D572" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>304</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D573" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>304</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D574" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>304</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C575" s="6">
+        <v>26.99</v>
+      </c>
+      <c r="D575" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>304</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D576" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>304</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D577" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>304</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D578" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>304</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D579" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>304</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D580" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>304</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D581" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>304</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D582" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>304</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D583" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>304</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D584" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>304</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D585" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>304</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D586" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>304</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D587" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>304</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D588" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>304</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D589" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>304</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D590" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>304</v>
+      </c>
+      <c r="B591" s="3">
+        <v>6642</v>
+      </c>
+      <c r="D591" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>304</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C592" s="6">
+        <v>40</v>
+      </c>
+      <c r="D592" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>304</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D593" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>304</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D594" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>304</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D595" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/vendor_map.xlsx
+++ b/vendor_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rygarcorp.com\shares\Cornerstone\Garretts Reports\Sales Report App\Excell Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A295C6C-A9F7-4477-9809-33C0CBAAA3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D443766-B371-4935-805B-6B507DAE90E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="76680" yWindow="-825" windowWidth="29040" windowHeight="15990" xr2:uid="{5542AD97-7A4C-4C40-ABF5-82E45C8FC76F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="307">
   <si>
     <t>BGC10</t>
   </si>
@@ -943,6 +943,9 @@
   </si>
   <si>
     <t>Fucntion 101</t>
+  </si>
+  <si>
+    <t>Depot In-Store</t>
   </si>
 </sst>
 </file>
@@ -1340,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6055176-08B8-4018-B9DF-7F26AB5DB49D}">
-  <dimension ref="A1:K595"/>
+  <dimension ref="A1:K600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
+      <selection activeCell="D601" sqref="D601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9291,6 +9294,48 @@
         <v>169</v>
       </c>
     </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>306</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C598" s="6">
+        <v>42.75</v>
+      </c>
+      <c r="D598" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>306</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C599" s="6">
+        <v>68</v>
+      </c>
+      <c r="D599" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>306</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C600" s="6">
+        <v>82.2</v>
+      </c>
+      <c r="D600" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vendor_map.xlsx
+++ b/vendor_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rygarcorp.com\shares\Cornerstone\Garretts Reports\Sales Report App\Excell Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D443766-B371-4935-805B-6B507DAE90E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C919CD9-15CA-45FA-AC3F-1C3FE8060E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76680" yWindow="-825" windowWidth="29040" windowHeight="15990" xr2:uid="{5542AD97-7A4C-4C40-ABF5-82E45C8FC76F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21150" xr2:uid="{5542AD97-7A4C-4C40-ABF5-82E45C8FC76F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="295">
   <si>
     <t>BGC10</t>
   </si>
@@ -189,51 +189,6 @@
     <t>SL18LED</t>
   </si>
   <si>
-    <t>Asiana-943</t>
-  </si>
-  <si>
-    <t>Deco Mia-953</t>
-  </si>
-  <si>
-    <t>Dimondi-927</t>
-  </si>
-  <si>
-    <t>Dimondi-92736</t>
-  </si>
-  <si>
-    <t>Fenestra-924</t>
-  </si>
-  <si>
-    <t>Framington-941</t>
-  </si>
-  <si>
-    <t>Hawes-923</t>
-  </si>
-  <si>
-    <t>Moracca-952</t>
-  </si>
-  <si>
-    <t>Octavia-951</t>
-  </si>
-  <si>
-    <t>Ovala-942</t>
-  </si>
-  <si>
-    <t>Prifma-926</t>
-  </si>
-  <si>
-    <t>Prifma-92636</t>
-  </si>
-  <si>
-    <t>Rococco-944</t>
-  </si>
-  <si>
-    <t>Vanwalt-925</t>
-  </si>
-  <si>
-    <t>Vanwalt-92536</t>
-  </si>
-  <si>
     <t>MMR1G+32oz</t>
   </si>
   <si>
@@ -946,6 +901,15 @@
   </si>
   <si>
     <t>Depot In-Store</t>
+  </si>
+  <si>
+    <t>Ovala-42</t>
+  </si>
+  <si>
+    <t>Orgil</t>
+  </si>
+  <si>
+    <t>ACE Hardware</t>
   </si>
 </sst>
 </file>
@@ -1343,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6055176-08B8-4018-B9DF-7F26AB5DB49D}">
-  <dimension ref="A1:K600"/>
+  <dimension ref="A1:K614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
-      <selection activeCell="D601" sqref="D601"/>
+    <sheetView tabSelected="1" topLeftCell="A580" workbookViewId="0">
+      <selection activeCell="F612" sqref="F612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,21 +1327,21 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1386,13 +1350,13 @@
         <v>9.59</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -1401,13 +1365,13 @@
         <v>9.59</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -1416,13 +1380,13 @@
         <v>9.59</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -1431,13 +1395,13 @@
         <v>14.99</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -1446,13 +1410,13 @@
         <v>17.97</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -1461,148 +1425,148 @@
         <v>16.5</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C8" s="6">
         <v>16.75</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C9" s="6">
         <v>16.75</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C10" s="6">
         <v>16.75</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C11" s="6">
         <v>16.75</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C12" s="6">
         <v>16.75</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C13" s="6">
         <v>16.75</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C14" s="6">
         <v>16.75</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C15" s="6">
         <v>16.75</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C16" s="6">
         <v>16.75</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>6</v>
@@ -1611,13 +1575,13 @@
         <v>17.3</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
@@ -1626,13 +1590,13 @@
         <v>24.25</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>8</v>
@@ -1641,13 +1605,13 @@
         <v>12.37</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>9</v>
@@ -1656,13 +1620,13 @@
         <v>50.83</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>10</v>
@@ -1671,13 +1635,13 @@
         <v>59.07</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>11</v>
@@ -1686,13 +1650,13 @@
         <v>83.8</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
@@ -1701,13 +1665,13 @@
         <v>115.4</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>13</v>
@@ -1716,13 +1680,13 @@
         <v>107.15</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>14</v>
@@ -1731,13 +1695,13 @@
         <v>170.35</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>15</v>
@@ -1746,13 +1710,13 @@
         <v>129.13</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>16</v>
@@ -1761,13 +1725,13 @@
         <v>129.84</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>17</v>
@@ -1776,13 +1740,13 @@
         <v>138.4</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>18</v>
@@ -1791,13 +1755,13 @@
         <v>126.5</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>19</v>
@@ -1806,13 +1770,13 @@
         <v>126.38</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>20</v>
@@ -1821,13 +1785,13 @@
         <v>211.56</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>21</v>
@@ -1836,13 +1800,13 @@
         <v>228.04</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>22</v>
@@ -1851,13 +1815,13 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>23</v>
@@ -1866,13 +1830,13 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>24</v>
@@ -1881,13 +1845,13 @@
         <v>9.25</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>25</v>
@@ -1896,83 +1860,83 @@
         <v>9.8699999999999992</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B37" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C37" s="7">
         <v>42.9</v>
       </c>
       <c r="D37" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B38" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C38" s="7">
         <v>37.619999999999997</v>
       </c>
       <c r="D38" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B39" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C39" s="7">
         <v>37.619999999999997</v>
       </c>
       <c r="D39" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C40" s="7">
         <v>42.9</v>
       </c>
       <c r="D40" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C41" s="7">
         <v>42.9</v>
       </c>
       <c r="D41" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>26</v>
@@ -1981,13 +1945,13 @@
         <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>27</v>
@@ -1996,13 +1960,13 @@
         <v>145</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>28</v>
@@ -2011,13 +1975,13 @@
         <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>29</v>
@@ -2026,13 +1990,13 @@
         <v>145</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>30</v>
@@ -2041,13 +2005,13 @@
         <v>192</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>31</v>
@@ -2056,13 +2020,13 @@
         <v>230</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>32</v>
@@ -2071,13 +2035,13 @@
         <v>292</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>33</v>
@@ -2086,13 +2050,13 @@
         <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>34</v>
@@ -2101,13 +2065,13 @@
         <v>265</v>
       </c>
       <c r="D50" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>35</v>
@@ -2116,13 +2080,13 @@
         <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K51" s="3"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>36</v>
@@ -2131,13 +2095,13 @@
         <v>130</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>37</v>
@@ -2146,13 +2110,13 @@
         <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>38</v>
@@ -2161,13 +2125,13 @@
         <v>299</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>39</v>
@@ -2176,13 +2140,13 @@
         <v>299</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>40</v>
@@ -2191,13 +2155,13 @@
         <v>19.95</v>
       </c>
       <c r="D56" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="K56" s="3"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>41</v>
@@ -2206,13 +2170,13 @@
         <v>19.95</v>
       </c>
       <c r="D57" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>42</v>
@@ -2221,13 +2185,13 @@
         <v>19.95</v>
       </c>
       <c r="D58" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>43</v>
@@ -2236,13 +2200,13 @@
         <v>19.95</v>
       </c>
       <c r="D59" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="K59" s="3"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>44</v>
@@ -2251,13 +2215,13 @@
         <v>19.95</v>
       </c>
       <c r="D60" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>45</v>
@@ -2266,13 +2230,13 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>46</v>
@@ -2281,13 +2245,13 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="K62" s="3"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>47</v>
@@ -2296,13 +2260,13 @@
         <v>450</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="K63" s="3"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B64" s="4">
         <v>6102</v>
@@ -2311,14 +2275,14 @@
         <v>26.15</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E64" s="4"/>
       <c r="K64" s="4"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B65" s="4">
         <v>6106</v>
@@ -2327,14 +2291,14 @@
         <v>40.5</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E65" s="4"/>
       <c r="K65" s="4"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>48</v>
@@ -2343,14 +2307,14 @@
         <v>35.5</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E66" s="4"/>
       <c r="K66" s="4"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>49</v>
@@ -2359,14 +2323,14 @@
         <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E67" s="4"/>
       <c r="K67" s="4"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>50</v>
@@ -2375,14 +2339,14 @@
         <v>47</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E68" s="4"/>
       <c r="K68" s="4"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>51</v>
@@ -2391,14 +2355,14 @@
         <v>53</v>
       </c>
       <c r="D69" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E69" s="4"/>
       <c r="K69" s="4"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>52</v>
@@ -2407,14 +2371,14 @@
         <v>48</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E70" s="4"/>
       <c r="K70" s="4"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>53</v>
@@ -2423,1006 +2387,1006 @@
         <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E71" s="4"/>
       <c r="K71" s="4"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="C72" s="8">
         <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E72" s="4"/>
       <c r="K72" s="4"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="C73" s="6">
         <v>179</v>
       </c>
       <c r="D73" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K73" s="3"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="C74" s="6">
         <v>126.38</v>
       </c>
       <c r="D74" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K74" s="3"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="C75" s="6">
         <v>230</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K75" s="3"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="C76" s="6">
         <v>147.15</v>
       </c>
       <c r="D76" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K76" s="3"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="C77" s="6">
         <v>148</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K77" s="3"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="C78" s="6">
         <v>138</v>
       </c>
       <c r="D78" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K78" s="3"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="C79" s="6">
         <v>225</v>
       </c>
       <c r="D79" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K79" s="3"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="C80" s="6">
         <v>192</v>
       </c>
       <c r="D80" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K80" s="3"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>63</v>
+        <v>292</v>
       </c>
       <c r="C81" s="6">
         <v>164</v>
       </c>
       <c r="D81" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K81" s="3"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="C82" s="6">
         <v>136</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K82" s="3"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="C83" s="6">
         <v>225</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K83" s="3"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="C84" s="6">
         <v>285.45</v>
       </c>
       <c r="D84" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K84" s="3"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="C85" s="6">
         <v>148</v>
       </c>
       <c r="D85" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K85" s="3"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
       <c r="C86" s="6">
         <v>241</v>
       </c>
       <c r="D86" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K86" s="3"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B87" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C87" s="6">
         <v>43</v>
       </c>
       <c r="D87" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B88" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C88" s="6">
         <v>46</v>
       </c>
       <c r="D88" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B89" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C89" s="6">
         <v>48</v>
       </c>
       <c r="D89" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B90" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C90" s="6">
         <v>53</v>
       </c>
       <c r="D90" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B91" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C91" s="6">
         <v>63</v>
       </c>
       <c r="D91" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B92" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C92" s="6">
         <v>75</v>
       </c>
       <c r="D92" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C93" s="6">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="K93" s="3"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C94" s="6">
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="K94" s="3"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C95" s="6">
         <v>21</v>
       </c>
       <c r="D95" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="K95" s="3"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C96" s="6">
         <v>40</v>
       </c>
       <c r="D96" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="K96" s="3"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C97" s="6">
         <v>80</v>
       </c>
       <c r="D97" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="K97" s="3"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B98" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C98" s="7">
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B99" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C99" s="6">
         <v>28</v>
       </c>
       <c r="D99" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B100" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C100" s="6">
         <v>102</v>
       </c>
       <c r="D100" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C101" s="6">
         <v>31</v>
       </c>
       <c r="D101" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K101" s="3"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C102" s="6">
         <v>15.1</v>
       </c>
       <c r="D102" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K102" s="3"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C103" s="6">
         <v>43</v>
       </c>
       <c r="D103" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K103" s="3"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C104" s="6">
         <v>20.84</v>
       </c>
       <c r="D104" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K104" s="3"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C105" s="6">
         <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K105" s="3"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C106" s="6">
         <v>23</v>
       </c>
       <c r="D106" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K106" s="3"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C107" s="6">
         <v>10.1</v>
       </c>
       <c r="D107" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K107" s="3"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C108" s="2">
         <v>16.5</v>
       </c>
       <c r="D108" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E108" s="1"/>
       <c r="K108" s="1"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C109" s="6">
         <v>22</v>
       </c>
       <c r="D109" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K109" s="3"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C110" s="6">
         <v>26.25</v>
       </c>
       <c r="D110" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K110" s="3"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C111" s="6">
         <v>28</v>
       </c>
       <c r="D111" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K111" s="3"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C112" s="6">
         <v>26</v>
       </c>
       <c r="D112" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K112" s="3"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C113" s="2">
         <v>25</v>
       </c>
       <c r="D113" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E113" s="1"/>
       <c r="K113" s="1"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C114" s="2">
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E114" s="1"/>
       <c r="K114" s="1"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C115" s="2">
         <v>1149.73</v>
       </c>
       <c r="D115" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E115" s="1"/>
       <c r="K115" s="1"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C116" s="2">
         <v>919.63</v>
       </c>
       <c r="D116" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E116" s="1"/>
       <c r="K116" s="1"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C117" s="2">
         <v>1188.08</v>
       </c>
       <c r="D117" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E117" s="1"/>
       <c r="K117" s="1"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C118" s="2">
         <v>1149.73</v>
       </c>
       <c r="D118" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E118" s="1"/>
       <c r="K118" s="1"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C119" s="2">
         <v>957.98</v>
       </c>
       <c r="D119" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E119" s="1"/>
       <c r="K119" s="1"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C120" s="2">
         <v>919.63</v>
       </c>
       <c r="D120" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E120" s="1"/>
       <c r="K120" s="1"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2">
         <v>1571.58</v>
       </c>
       <c r="D121" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E121" s="1"/>
       <c r="K121" s="1"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C122" s="6">
         <v>1533.23</v>
       </c>
       <c r="D122" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K122" s="3"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C123" s="6">
         <v>1571.58</v>
       </c>
       <c r="D123" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K123" s="3"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C124" s="6">
         <v>1533.23</v>
       </c>
       <c r="D124" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K124" s="3"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C125" s="6">
         <v>758.56</v>
       </c>
       <c r="D125" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K125" s="3"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C126" s="6">
         <v>689</v>
       </c>
       <c r="D126" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K126" s="3"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C127" s="6">
         <v>421.08</v>
       </c>
       <c r="D127" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K127" s="3"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C128" s="6">
         <v>382.73</v>
       </c>
       <c r="D128" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K128" s="3"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C129" s="6">
         <v>574.48</v>
       </c>
       <c r="D129" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K129" s="3"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C130" s="6">
         <v>536.13</v>
       </c>
       <c r="D130" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K130" s="3"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C131" s="6">
         <v>87</v>
       </c>
       <c r="D131" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K131" s="3"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C132" s="6">
         <v>225</v>
       </c>
       <c r="D132" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K132" s="3"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C133" s="6">
         <v>149</v>
       </c>
       <c r="D133" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K133" s="3"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C134" s="6">
         <v>69.900000000000006</v>
       </c>
       <c r="D134" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K134" s="3"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C135" s="6">
         <v>60</v>
       </c>
       <c r="D135" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="K135" s="3"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C136" s="6">
         <v>6.25</v>
       </c>
       <c r="D136" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K136" s="3"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C137" s="6">
         <v>6.75</v>
       </c>
       <c r="D137" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K137" s="3"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B138" s="3">
         <v>4430</v>
@@ -3431,13 +3395,13 @@
         <v>15.25</v>
       </c>
       <c r="D138" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K138" s="3"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B139" s="3">
         <v>4442</v>
@@ -3446,43 +3410,43 @@
         <v>18.899999999999999</v>
       </c>
       <c r="D139" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K139" s="3"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C140" s="6">
         <v>224</v>
       </c>
       <c r="D140" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K140" s="3"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C141" s="6">
         <v>972</v>
       </c>
       <c r="D141" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K141" s="3"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B142" s="3">
         <v>4642</v>
@@ -3491,28 +3455,28 @@
         <v>20.8</v>
       </c>
       <c r="D142" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K142" s="3"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C143" s="6">
         <v>126</v>
       </c>
       <c r="D143" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K143" s="3"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B144" s="3">
         <v>4660</v>
@@ -3521,13 +3485,13 @@
         <v>24.7</v>
       </c>
       <c r="D144" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K144" s="3"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B145" s="3">
         <v>6630</v>
@@ -3536,13 +3500,13 @@
         <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K145" s="3"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B146" s="3">
         <v>6642</v>
@@ -3551,28 +3515,28 @@
         <v>26.8</v>
       </c>
       <c r="D146" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K146" s="3"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C147" s="6">
         <v>151.19999999999999</v>
       </c>
       <c r="D147" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K147" s="3"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B148" s="3">
         <v>6660</v>
@@ -3581,28 +3545,28 @@
         <v>27.05</v>
       </c>
       <c r="D148" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K148" s="3"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C149" s="6">
         <v>160</v>
       </c>
       <c r="D149" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K149" s="3"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B150" s="3">
         <v>8860</v>
@@ -3611,633 +3575,633 @@
         <v>42.25</v>
       </c>
       <c r="D150" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K150" s="3"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C151" s="6">
         <v>30.5</v>
       </c>
       <c r="D151" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="K151" s="3"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C152" s="6">
         <v>62</v>
       </c>
       <c r="D152" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="K152" s="3"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C153" s="6">
         <v>79</v>
       </c>
       <c r="D153" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="K153" s="3"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C154" s="6">
         <v>10.85</v>
       </c>
       <c r="D154" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C155" s="6">
         <v>10.85</v>
       </c>
       <c r="D155" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C156" s="6">
         <v>9.15</v>
       </c>
       <c r="D156" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C157" s="6">
         <v>11.5</v>
       </c>
       <c r="D157" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C158" s="6">
         <v>9.15</v>
       </c>
       <c r="D158" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C159" s="6">
         <v>11.5</v>
       </c>
       <c r="D159" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B160" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C160" s="6">
         <v>11.5</v>
       </c>
       <c r="D160" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B161" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C161" s="6">
         <v>11.5</v>
       </c>
       <c r="D161" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B162" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C162" s="6">
         <v>11.15</v>
       </c>
       <c r="D162" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B163" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C163" s="6">
         <v>23.1</v>
       </c>
       <c r="D163" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C164" s="6">
         <v>42</v>
       </c>
       <c r="D164" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="K164" s="3"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C165" s="6">
         <v>68.25</v>
       </c>
       <c r="D165" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="K165" s="3"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C166" s="6">
         <v>23.5</v>
       </c>
       <c r="D166" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="K166" s="3"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C167" s="6">
         <v>21.5</v>
       </c>
       <c r="D167" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K167" s="3"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C168" s="6">
         <v>22.5</v>
       </c>
       <c r="D168" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K168" s="3"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C169" s="6">
         <v>25.9</v>
       </c>
       <c r="D169" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K169" s="3"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C170" s="6">
         <v>25.9</v>
       </c>
       <c r="D170" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K170" s="3"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C171" s="6">
         <v>25.9</v>
       </c>
       <c r="D171" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K171" s="3"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C172" s="6">
         <v>25.9</v>
       </c>
       <c r="D172" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K172" s="3"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C173" s="6">
         <v>25.9</v>
       </c>
       <c r="D173" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K173" s="3"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C174" s="6">
         <v>25.9</v>
       </c>
       <c r="D174" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K174" s="3"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C175" s="6">
         <v>9.5</v>
       </c>
       <c r="D175" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K175" s="3"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C176" s="6">
         <v>9.5</v>
       </c>
       <c r="D176" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K176" s="3"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C177" s="6">
         <v>9.5</v>
       </c>
       <c r="D177" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K177" s="3"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C178" s="6">
         <v>23.15</v>
       </c>
       <c r="D178" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K178" s="3"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C179" s="6">
         <v>42.65</v>
       </c>
       <c r="D179" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K179" s="3"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C180" s="6">
         <v>82</v>
       </c>
       <c r="D180" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K180" s="3"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C181" s="6">
         <v>33.5</v>
       </c>
       <c r="D181" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K181" s="3"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C182" s="6">
         <v>60.9</v>
       </c>
       <c r="D182" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K182" s="3"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C183" s="6">
         <v>118</v>
       </c>
       <c r="D183" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K183" s="3"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C184" s="6">
         <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K184" s="3"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C185" s="6">
         <v>16</v>
       </c>
       <c r="D185" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K185" s="3"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C186" s="6">
         <v>21.32</v>
       </c>
       <c r="D186" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K186" s="3"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C187" s="6">
         <v>27.5</v>
       </c>
       <c r="D187" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K187" s="3"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C188" s="6">
         <v>7.5</v>
       </c>
       <c r="D188" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K188" s="3"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C189" s="6">
         <v>11.9</v>
       </c>
       <c r="D189" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K189" s="3"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C190" s="6">
         <v>18.05</v>
       </c>
       <c r="D190" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K190" s="3"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C191" s="6">
         <v>4.8499999999999996</v>
       </c>
       <c r="D191" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K191" s="3"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C192" s="6">
         <v>8</v>
       </c>
       <c r="D192" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K192" s="3"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>0</v>
@@ -4246,12 +4210,12 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="D196" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>1</v>
@@ -4260,12 +4224,12 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="D197" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>2</v>
@@ -4274,26 +4238,26 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="D198" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C199" s="6">
         <v>11.85</v>
       </c>
       <c r="D199" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>3</v>
@@ -4302,12 +4266,12 @@
         <v>15.44</v>
       </c>
       <c r="D200" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>4</v>
@@ -4316,12 +4280,12 @@
         <v>18.510000000000002</v>
       </c>
       <c r="D201" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>5</v>
@@ -4330,82 +4294,82 @@
         <v>17</v>
       </c>
       <c r="D202" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C203" s="6">
         <v>20.6</v>
       </c>
       <c r="D203" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C204" s="6">
         <v>29.36</v>
       </c>
       <c r="D204" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C205" s="6">
         <v>30.9</v>
       </c>
       <c r="D205" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C206" s="6">
         <v>30.9</v>
       </c>
       <c r="D206" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C207" s="6">
         <v>37.6</v>
       </c>
       <c r="D207" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>26</v>
@@ -4414,12 +4378,12 @@
         <v>133</v>
       </c>
       <c r="D208" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>27</v>
@@ -4428,12 +4392,12 @@
         <v>145</v>
       </c>
       <c r="D209" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>28</v>
@@ -4442,12 +4406,12 @@
         <v>133</v>
       </c>
       <c r="D210" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>29</v>
@@ -4456,12 +4420,12 @@
         <v>145</v>
       </c>
       <c r="D211" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>30</v>
@@ -4470,12 +4434,12 @@
         <v>192</v>
       </c>
       <c r="D212" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>31</v>
@@ -4484,12 +4448,12 @@
         <v>230</v>
       </c>
       <c r="D213" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>32</v>
@@ -4498,12 +4462,12 @@
         <v>292</v>
       </c>
       <c r="D214" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>33</v>
@@ -4512,12 +4476,12 @@
         <v>262.64999999999998</v>
       </c>
       <c r="D215" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>34</v>
@@ -4526,12 +4490,12 @@
         <v>272.95</v>
       </c>
       <c r="D216" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>35</v>
@@ -4540,12 +4504,12 @@
         <v>136</v>
       </c>
       <c r="D217" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>36</v>
@@ -4554,12 +4518,12 @@
         <v>125</v>
       </c>
       <c r="D218" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>37</v>
@@ -4568,12 +4532,12 @@
         <v>56</v>
       </c>
       <c r="D219" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>22</v>
@@ -4582,12 +4546,12 @@
         <v>13</v>
       </c>
       <c r="D220" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>23</v>
@@ -4596,12 +4560,12 @@
         <v>17</v>
       </c>
       <c r="D221" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>47</v>
@@ -4610,12 +4574,12 @@
         <v>450</v>
       </c>
       <c r="D222" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B223" s="4">
         <v>6102</v>
@@ -4624,12 +4588,12 @@
         <v>23.86</v>
       </c>
       <c r="D223" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>48</v>
@@ -4638,12 +4602,12 @@
         <v>35.5</v>
       </c>
       <c r="D224" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>49</v>
@@ -4652,12 +4616,12 @@
         <v>32</v>
       </c>
       <c r="D225" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>50</v>
@@ -4666,12 +4630,12 @@
         <v>47</v>
       </c>
       <c r="D226" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>51</v>
@@ -4680,12 +4644,12 @@
         <v>53</v>
       </c>
       <c r="D227" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>52</v>
@@ -4694,12 +4658,12 @@
         <v>48</v>
       </c>
       <c r="D228" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>53</v>
@@ -4708,236 +4672,236 @@
         <v>70</v>
       </c>
       <c r="D229" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C230" s="8">
         <v>43</v>
       </c>
       <c r="D230" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C231" s="8">
         <v>46</v>
       </c>
       <c r="D231" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C232" s="8">
         <v>48</v>
       </c>
       <c r="D232" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C233" s="8">
         <v>53</v>
       </c>
       <c r="D233" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C234" s="8">
         <v>63</v>
       </c>
       <c r="D234" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C235" s="8">
         <v>75</v>
       </c>
       <c r="D235" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C236" s="8">
         <v>38</v>
       </c>
       <c r="D236" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C237" s="6">
         <v>24</v>
       </c>
       <c r="D237" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C238" s="6">
         <v>48</v>
       </c>
       <c r="D238" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C239" s="6">
         <v>92</v>
       </c>
       <c r="D239" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C240" s="6">
         <v>38</v>
       </c>
       <c r="D240" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C241" s="6">
         <v>31</v>
       </c>
       <c r="D241" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C242" s="6">
         <v>120</v>
       </c>
       <c r="D242" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C243" s="6">
         <v>25</v>
       </c>
       <c r="D243" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C244" s="6">
         <v>37</v>
       </c>
       <c r="D244" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C245" s="6">
         <v>60</v>
       </c>
       <c r="D245" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B246" s="3">
         <v>4430</v>
@@ -4946,12 +4910,12 @@
         <v>12.6</v>
       </c>
       <c r="D246" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B247" s="3">
         <v>4442</v>
@@ -4960,12 +4924,12 @@
         <v>14.53</v>
       </c>
       <c r="D247" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B248" s="3">
         <v>4642</v>
@@ -4974,12 +4938,12 @@
         <v>20.8</v>
       </c>
       <c r="D248" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B249" s="3">
         <v>4660</v>
@@ -4988,12 +4952,12 @@
         <v>27</v>
       </c>
       <c r="D249" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B250" s="3">
         <v>6642</v>
@@ -5002,23 +4966,23 @@
         <v>18.52</v>
       </c>
       <c r="D250" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D251" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B252" s="3">
         <v>6660</v>
@@ -5027,26 +4991,26 @@
         <v>27.05</v>
       </c>
       <c r="D252" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C253" s="6">
         <v>160</v>
       </c>
       <c r="D253" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B254" s="3">
         <v>8860</v>
@@ -5055,292 +5019,292 @@
         <v>63.9</v>
       </c>
       <c r="D254" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C255" s="6">
         <v>41.5</v>
       </c>
       <c r="D255" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C256" s="6">
         <v>11</v>
       </c>
       <c r="D256" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C257" s="6">
         <v>23</v>
       </c>
       <c r="D257" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C258" s="6">
         <v>78</v>
       </c>
       <c r="D258" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C259" s="6">
         <v>23.15</v>
       </c>
       <c r="D259" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C260" s="6">
         <v>42.65</v>
       </c>
       <c r="D260" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C261" s="6">
         <v>82</v>
       </c>
       <c r="D261" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C262" s="6">
         <v>33.5</v>
       </c>
       <c r="D262" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C263" s="6">
         <v>60.9</v>
       </c>
       <c r="D263" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C264" s="6">
         <v>118</v>
       </c>
       <c r="D264" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C265" s="6">
         <v>16</v>
       </c>
       <c r="D265" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C266" s="6">
         <v>16</v>
       </c>
       <c r="D266" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C267" s="6">
         <v>21.32</v>
       </c>
       <c r="D267" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C268" s="6">
         <v>30</v>
       </c>
       <c r="D268" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C269" s="6">
         <v>33</v>
       </c>
       <c r="D269" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C270" s="6">
         <v>27</v>
       </c>
       <c r="D270" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C271" s="6">
         <v>45</v>
       </c>
       <c r="D271" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C272" s="6">
         <v>81</v>
       </c>
       <c r="D272" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C273" s="6">
         <v>114</v>
       </c>
       <c r="D273" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C274" s="6">
         <v>126</v>
       </c>
       <c r="D274" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>0</v>
@@ -5349,12 +5313,12 @@
         <v>9.6</v>
       </c>
       <c r="D279" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>1</v>
@@ -5363,12 +5327,12 @@
         <v>9.5399999999999991</v>
       </c>
       <c r="D280" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>2</v>
@@ -5377,26 +5341,26 @@
         <v>9.6</v>
       </c>
       <c r="D281" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C282" s="6">
         <v>11.5</v>
       </c>
       <c r="D282" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>3</v>
@@ -5405,12 +5369,12 @@
         <v>14.99</v>
       </c>
       <c r="D283" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>4</v>
@@ -5419,12 +5383,12 @@
         <v>16.5</v>
       </c>
       <c r="D284" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>5</v>
@@ -5433,110 +5397,110 @@
         <v>17.97</v>
       </c>
       <c r="D285" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C286" s="6">
         <v>20</v>
       </c>
       <c r="D286" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C287" s="6">
         <v>28.5</v>
       </c>
       <c r="D287" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C288" s="6">
         <v>30</v>
       </c>
       <c r="D288" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C289" s="6">
         <v>30</v>
       </c>
       <c r="D289" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C290" s="6">
         <v>36.5</v>
       </c>
       <c r="D290" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B291" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C291" s="6">
         <v>42.9</v>
       </c>
       <c r="D291" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B292" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C292" s="6">
         <v>42.9</v>
       </c>
       <c r="D292" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>26</v>
@@ -5545,12 +5509,12 @@
         <v>98.5</v>
       </c>
       <c r="D293" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>27</v>
@@ -5559,12 +5523,12 @@
         <v>105</v>
       </c>
       <c r="D294" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>28</v>
@@ -5573,12 +5537,12 @@
         <v>98.5</v>
       </c>
       <c r="D295" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>29</v>
@@ -5587,12 +5551,12 @@
         <v>105</v>
       </c>
       <c r="D296" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>30</v>
@@ -5601,12 +5565,12 @@
         <v>142</v>
       </c>
       <c r="D297" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>31</v>
@@ -5615,12 +5579,12 @@
         <v>170</v>
       </c>
       <c r="D298" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>32</v>
@@ -5629,12 +5593,12 @@
         <v>234</v>
       </c>
       <c r="D299" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>33</v>
@@ -5643,12 +5607,12 @@
         <v>255</v>
       </c>
       <c r="D300" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>34</v>
@@ -5657,12 +5621,12 @@
         <v>265</v>
       </c>
       <c r="D301" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>35</v>
@@ -5671,26 +5635,26 @@
         <v>140</v>
       </c>
       <c r="D302" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C303" s="6">
         <v>130</v>
       </c>
       <c r="D303" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>37</v>
@@ -5699,12 +5663,12 @@
         <v>58</v>
       </c>
       <c r="D304" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>23</v>
@@ -5713,12 +5677,12 @@
         <v>18</v>
       </c>
       <c r="D305" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>47</v>
@@ -5727,283 +5691,283 @@
         <v>475</v>
       </c>
       <c r="D306" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C307" s="6">
         <v>12</v>
       </c>
       <c r="D307" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C308" s="6">
         <v>21</v>
       </c>
       <c r="D308" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C309" s="6">
         <v>40</v>
       </c>
       <c r="D309" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C310" s="6">
         <v>80</v>
       </c>
       <c r="D310" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B311" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C311" s="6">
         <v>16</v>
       </c>
       <c r="D311" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B312" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C312" s="6">
         <v>28</v>
       </c>
       <c r="D312" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B313" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C313" s="6">
         <v>102</v>
       </c>
       <c r="D313" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C314" s="6">
         <v>33.5</v>
       </c>
       <c r="D314" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C315" s="6">
         <v>15.1</v>
       </c>
       <c r="D315" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B316" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C316" s="6">
         <v>38.28</v>
       </c>
       <c r="D316" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C317" s="6">
         <v>22.36</v>
       </c>
       <c r="D317" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C318" s="6">
         <v>23.68</v>
       </c>
       <c r="D318" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C319" s="6">
         <v>10</v>
       </c>
       <c r="D319" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C320" s="6">
         <v>87</v>
       </c>
       <c r="D320" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C321" s="6">
         <v>225</v>
       </c>
       <c r="D321" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C322" s="6">
         <v>421.08</v>
       </c>
       <c r="D322" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D323" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C324" s="6">
         <v>60</v>
       </c>
       <c r="D324" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D325" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D326" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B327" s="3">
         <v>4430</v>
@@ -6012,12 +5976,12 @@
         <v>15.25</v>
       </c>
       <c r="D327" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B328" s="3">
         <v>4442</v>
@@ -6026,37 +5990,37 @@
         <v>18.899999999999999</v>
       </c>
       <c r="D328" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C329" s="6">
         <v>193</v>
       </c>
       <c r="D329" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D330" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B331" s="3">
         <v>4642</v>
@@ -6065,23 +6029,23 @@
         <v>20.8</v>
       </c>
       <c r="D331" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D332" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B333" s="3">
         <v>4660</v>
@@ -6090,12 +6054,12 @@
         <v>24.7</v>
       </c>
       <c r="D333" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B334" s="3">
         <v>6642</v>
@@ -6104,26 +6068,26 @@
         <v>26.8</v>
       </c>
       <c r="D334" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C335" s="6">
         <v>115</v>
       </c>
       <c r="D335" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B336" s="3">
         <v>6660</v>
@@ -6132,473 +6096,473 @@
         <v>27.05</v>
       </c>
       <c r="D336" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C337" s="6">
         <v>160</v>
       </c>
       <c r="D337" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C338" s="6">
         <v>30.5</v>
       </c>
       <c r="D338" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C339" s="6">
         <v>12.75</v>
       </c>
       <c r="D339" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C340" s="6">
         <v>12.75</v>
       </c>
       <c r="D340" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C341" s="6">
         <v>13.25</v>
       </c>
       <c r="D341" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C342" s="6">
         <v>10.3</v>
       </c>
       <c r="D342" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C343" s="6">
         <v>11.85</v>
       </c>
       <c r="D343" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C344" s="6">
         <v>12.75</v>
       </c>
       <c r="D344" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C345" s="6">
         <v>10.3</v>
       </c>
       <c r="D345" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C346" s="6">
         <v>13.25</v>
       </c>
       <c r="D346" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C347" s="6">
         <v>12.75</v>
       </c>
       <c r="D347" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C348" s="6">
         <v>21.5</v>
       </c>
       <c r="D348" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C349" s="6">
         <v>22.5</v>
       </c>
       <c r="D349" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C350" s="6">
         <v>10.5</v>
       </c>
       <c r="D350" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C351" s="6">
         <v>10.5</v>
       </c>
       <c r="D351" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C352" s="6">
         <v>10.5</v>
       </c>
       <c r="D352" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D353" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C354" s="6">
         <v>23</v>
       </c>
       <c r="D354" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D355" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C356" s="6">
         <v>23.15</v>
       </c>
       <c r="D356" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C357" s="6">
         <v>42.65</v>
       </c>
       <c r="D357" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C358" s="6">
         <v>82</v>
       </c>
       <c r="D358" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C359" s="6">
         <v>33.5</v>
       </c>
       <c r="D359" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C360" s="6">
         <v>60.9</v>
       </c>
       <c r="D360" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C361" s="6">
         <v>118</v>
       </c>
       <c r="D361" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C362" s="6">
         <v>16</v>
       </c>
       <c r="D362" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C363" s="6">
         <v>16</v>
       </c>
       <c r="D363" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C364" s="6">
         <v>21.32</v>
       </c>
       <c r="D364" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C365" s="6">
         <v>26</v>
       </c>
       <c r="D365" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D366" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C367" s="6">
         <v>13.42</v>
       </c>
       <c r="D367" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D368" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D369" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C370" s="6">
         <v>9.5399999999999991</v>
       </c>
       <c r="D370" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>6</v>
@@ -6607,12 +6571,12 @@
         <v>24.99</v>
       </c>
       <c r="D374" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>7</v>
@@ -6621,12 +6585,12 @@
         <v>34.99</v>
       </c>
       <c r="D375" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>22</v>
@@ -6635,12 +6599,12 @@
         <v>19.989999999999998</v>
       </c>
       <c r="D376" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>23</v>
@@ -6649,12 +6613,12 @@
         <v>29.99</v>
       </c>
       <c r="D377" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>28</v>
@@ -6663,12 +6627,12 @@
         <v>189.99</v>
       </c>
       <c r="D378" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>29</v>
@@ -6677,26 +6641,26 @@
         <v>229.99</v>
       </c>
       <c r="D379" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C380" s="6">
         <v>299.99</v>
       </c>
       <c r="D380" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>26</v>
@@ -6705,12 +6669,12 @@
         <v>189.99</v>
       </c>
       <c r="D381" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>27</v>
@@ -6719,26 +6683,26 @@
         <v>229</v>
       </c>
       <c r="D382" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C383" s="6">
         <v>299.99</v>
       </c>
       <c r="D383" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>30</v>
@@ -6747,12 +6711,12 @@
         <v>309</v>
       </c>
       <c r="D384" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>31</v>
@@ -6761,12 +6725,12 @@
         <v>345</v>
       </c>
       <c r="D385" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>32</v>
@@ -6775,12 +6739,12 @@
         <v>409</v>
       </c>
       <c r="D386" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>33</v>
@@ -6789,26 +6753,26 @@
         <v>389</v>
       </c>
       <c r="D387" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C388" s="6">
         <v>389.99</v>
       </c>
       <c r="D388" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>34</v>
@@ -6817,26 +6781,26 @@
         <v>399.99</v>
       </c>
       <c r="D389" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C390" s="6">
         <v>399.99</v>
       </c>
       <c r="D390" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>37</v>
@@ -6845,23 +6809,23 @@
         <v>89.23</v>
       </c>
       <c r="D391" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D392" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>35</v>
@@ -6870,152 +6834,152 @@
         <v>219.99</v>
       </c>
       <c r="D393" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C394" s="6">
         <v>429</v>
       </c>
       <c r="D394" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C395" s="6">
         <v>439</v>
       </c>
       <c r="D395" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C396" s="6">
         <v>199</v>
       </c>
       <c r="D396" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C397" s="6">
         <v>249</v>
       </c>
       <c r="D397" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C398" s="6">
         <v>670</v>
       </c>
       <c r="D398" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C399" s="6">
         <v>49.99</v>
       </c>
       <c r="D399" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C400" s="6">
         <v>49.99</v>
       </c>
       <c r="D400" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C401" s="6">
         <v>11.49</v>
       </c>
       <c r="D401" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C402" s="6">
         <v>18.95</v>
       </c>
       <c r="D402" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C403" s="6">
         <v>39.99</v>
       </c>
       <c r="D403" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B404" s="3">
         <v>6102</v>
@@ -7024,672 +6988,672 @@
         <v>44.5</v>
       </c>
       <c r="D404" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>181</v>
+      </c>
+      <c r="B405" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="C405" s="6">
         <v>112</v>
       </c>
       <c r="D405" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C406" s="6">
         <v>139</v>
       </c>
       <c r="D406" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C407" s="6">
         <v>139</v>
       </c>
       <c r="D407" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D408" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D409" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C410" s="6">
         <v>209</v>
       </c>
       <c r="D410" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D411" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D412" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C413" s="6">
         <v>179</v>
       </c>
       <c r="D413" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C414" s="6">
         <v>299.99</v>
       </c>
       <c r="D414" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C415" s="6">
         <v>220</v>
       </c>
       <c r="D415" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C416" s="6">
         <v>245</v>
       </c>
       <c r="D416" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C417" s="6">
         <v>240</v>
       </c>
       <c r="D417" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C418" s="6">
         <v>399</v>
       </c>
       <c r="D418" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C419" s="6">
         <v>209</v>
       </c>
       <c r="D419" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C420" s="6">
         <v>345</v>
       </c>
       <c r="D420" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C421" s="6">
         <v>209</v>
       </c>
       <c r="D421" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C422" s="6">
         <v>369</v>
       </c>
       <c r="D422" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C423" s="6">
         <v>315</v>
       </c>
       <c r="D423" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C424" s="6">
         <v>265</v>
       </c>
       <c r="D424" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C425" s="6">
         <v>251</v>
       </c>
       <c r="D425" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C426" s="6">
         <v>420</v>
       </c>
       <c r="D426" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C427" s="6">
         <v>315</v>
       </c>
       <c r="D427" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C428" s="6">
         <v>365</v>
       </c>
       <c r="D428" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C429" s="6">
         <v>285</v>
       </c>
       <c r="D429" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C430" s="6">
         <v>55.99</v>
       </c>
       <c r="D430" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C431" s="6">
         <v>39.99</v>
       </c>
       <c r="D431" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C432" s="6">
         <v>68</v>
       </c>
       <c r="D432" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C433" s="6">
         <v>129</v>
       </c>
       <c r="D433" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C434" s="6">
         <v>30.99</v>
       </c>
       <c r="D434" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C435" s="6">
         <v>42.99</v>
       </c>
       <c r="D435" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C436" s="6">
         <v>159</v>
       </c>
       <c r="D436" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C437" s="6">
         <v>49.99</v>
       </c>
       <c r="D437" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C438" s="6">
         <v>129</v>
       </c>
       <c r="D438" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C439" s="6">
         <v>47.99</v>
       </c>
       <c r="D439" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C440" s="6">
         <v>34.99</v>
       </c>
       <c r="D440" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C441" s="6">
         <v>89.99</v>
       </c>
       <c r="D441" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C442" s="6">
         <v>45</v>
       </c>
       <c r="D442" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C443" s="6">
         <v>88</v>
       </c>
       <c r="D443" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C444" s="6">
         <v>125</v>
       </c>
       <c r="D444" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C445" s="6">
         <v>79.989999999999995</v>
       </c>
       <c r="D445" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C446" s="6">
         <v>7.95</v>
       </c>
       <c r="D446" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C447" s="6">
         <v>18.95</v>
       </c>
       <c r="D447" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C448" s="6">
         <v>36.950000000000003</v>
       </c>
       <c r="D448" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C449" s="6">
         <v>39.99</v>
       </c>
       <c r="D449" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C453" s="6">
         <v>42.75</v>
       </c>
       <c r="D453" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C454" s="6">
         <v>79.47</v>
       </c>
       <c r="D454" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C455" s="6">
         <v>92.85</v>
       </c>
       <c r="D455" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B456" s="3">
         <v>4430</v>
@@ -7698,12 +7662,12 @@
         <v>15.25</v>
       </c>
       <c r="D456" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B457" s="3">
         <v>4442</v>
@@ -7712,12 +7676,12 @@
         <v>18.899999999999999</v>
       </c>
       <c r="D457" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B458" s="3">
         <v>6642</v>
@@ -7726,12 +7690,12 @@
         <v>26.8</v>
       </c>
       <c r="D458" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B459" s="3">
         <v>6660</v>
@@ -7740,12 +7704,12 @@
         <v>27.05</v>
       </c>
       <c r="D459" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>9</v>
@@ -7754,12 +7718,12 @@
         <v>47.95</v>
       </c>
       <c r="D462" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>10</v>
@@ -7768,12 +7732,12 @@
         <v>59.07</v>
       </c>
       <c r="D463" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>11</v>
@@ -7782,12 +7746,12 @@
         <v>83.8</v>
       </c>
       <c r="D464" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>12</v>
@@ -7796,12 +7760,12 @@
         <v>115.4</v>
       </c>
       <c r="D465" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>13</v>
@@ -7810,12 +7774,12 @@
         <v>107.15</v>
       </c>
       <c r="D466" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>22</v>
@@ -7824,12 +7788,12 @@
         <v>13</v>
       </c>
       <c r="D467" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>23</v>
@@ -7838,26 +7802,26 @@
         <v>17</v>
       </c>
       <c r="D468" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C469" s="6">
         <v>30</v>
       </c>
       <c r="D469" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B470" s="3">
         <v>4430</v>
@@ -7866,12 +7830,12 @@
         <v>15.25</v>
       </c>
       <c r="D470" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B471" s="3">
         <v>4442</v>
@@ -7880,12 +7844,12 @@
         <v>18.899999999999999</v>
       </c>
       <c r="D471" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B472" s="3">
         <v>6642</v>
@@ -7894,40 +7858,40 @@
         <v>26.8</v>
       </c>
       <c r="D472" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C473" s="6">
         <v>39.950000000000003</v>
       </c>
       <c r="D473" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C476" s="6">
         <v>9.92</v>
       </c>
       <c r="D476" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>9</v>
@@ -7936,12 +7900,12 @@
         <v>47.95</v>
       </c>
       <c r="D477" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>10</v>
@@ -7950,12 +7914,12 @@
         <v>55.73</v>
       </c>
       <c r="D478" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>11</v>
@@ -7964,12 +7928,12 @@
         <v>79.06</v>
       </c>
       <c r="D479" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>12</v>
@@ -7978,12 +7942,12 @@
         <v>108.86</v>
       </c>
       <c r="D480" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>13</v>
@@ -7992,12 +7956,12 @@
         <v>101.09</v>
       </c>
       <c r="D481" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>14</v>
@@ -8006,12 +7970,12 @@
         <v>160.69999999999999</v>
       </c>
       <c r="D482" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>15</v>
@@ -8020,12 +7984,12 @@
         <v>121.82</v>
       </c>
       <c r="D483" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>16</v>
@@ -8034,109 +7998,109 @@
         <v>122.49</v>
       </c>
       <c r="D484" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D485" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D486" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D487" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C488" s="6">
         <v>44</v>
       </c>
       <c r="D488" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C489" s="6">
         <v>67</v>
       </c>
       <c r="D489" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C490" s="6">
         <v>79</v>
       </c>
       <c r="D490" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D491" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B492" s="3">
         <v>4430</v>
       </c>
       <c r="D492" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B493" s="3">
         <v>4442</v>
@@ -8145,37 +8109,37 @@
         <v>15</v>
       </c>
       <c r="D493" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C494" s="6">
         <v>171</v>
       </c>
       <c r="D494" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D495" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B496" s="3">
         <v>4642</v>
@@ -8184,26 +8148,26 @@
         <v>16.5</v>
       </c>
       <c r="D496" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C497" s="6">
         <v>126</v>
       </c>
       <c r="D497" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B498" s="3">
         <v>4660</v>
@@ -8212,23 +8176,23 @@
         <v>20.25</v>
       </c>
       <c r="D498" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B499" s="3">
         <v>6630</v>
       </c>
       <c r="D499" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B500" s="3">
         <v>6642</v>
@@ -8237,26 +8201,26 @@
         <v>18.5</v>
       </c>
       <c r="D500" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C501" s="6">
         <v>103.5</v>
       </c>
       <c r="D501" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B502" s="3">
         <v>6660</v>
@@ -8265,48 +8229,48 @@
         <v>22.5</v>
       </c>
       <c r="D502" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C503" s="6">
         <v>126</v>
       </c>
       <c r="D503" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B504" s="3">
         <v>8860</v>
       </c>
       <c r="D504" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D507" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B508" s="3">
         <v>4430</v>
@@ -8315,12 +8279,12 @@
         <v>15.25</v>
       </c>
       <c r="D508" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B509" s="3">
         <v>4442</v>
@@ -8329,40 +8293,40 @@
         <v>15</v>
       </c>
       <c r="D509" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C510" s="6">
         <v>171</v>
       </c>
       <c r="D510" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C511" s="6">
         <v>972</v>
       </c>
       <c r="D511" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B512" s="3">
         <v>4642</v>
@@ -8371,26 +8335,26 @@
         <v>16.5</v>
       </c>
       <c r="D512" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C513" s="6">
         <v>126</v>
       </c>
       <c r="D513" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B514" s="3">
         <v>4660</v>
@@ -8399,12 +8363,12 @@
         <v>20.25</v>
       </c>
       <c r="D514" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B515" s="3">
         <v>6630</v>
@@ -8413,12 +8377,12 @@
         <v>19</v>
       </c>
       <c r="D515" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B516" s="3">
         <v>6642</v>
@@ -8427,26 +8391,26 @@
         <v>18.5</v>
       </c>
       <c r="D516" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C517" s="6">
         <v>103.5</v>
       </c>
       <c r="D517" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B518" s="3">
         <v>6660</v>
@@ -8455,26 +8419,26 @@
         <v>22.5</v>
       </c>
       <c r="D518" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C519" s="6">
         <v>126</v>
       </c>
       <c r="D519" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B520" s="3">
         <v>8860</v>
@@ -8483,840 +8447,1006 @@
         <v>42.25</v>
       </c>
       <c r="D520" t="s">
-        <v>163</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>276</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C524" s="6">
+        <v>50.35</v>
+      </c>
+      <c r="D524" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C525" s="6">
         <v>41.99</v>
       </c>
       <c r="D525" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C526" s="6">
         <v>82</v>
       </c>
       <c r="D526" t="s">
-        <v>160</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>276</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C527" s="6">
+        <v>28</v>
+      </c>
+      <c r="D527" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="C528" s="6">
-        <v>29.87</v>
+        <v>28.05</v>
       </c>
       <c r="D528" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="C529" s="6">
-        <v>199</v>
+        <v>28.05</v>
       </c>
       <c r="D529" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="C530" s="6">
-        <v>175</v>
+        <v>28.05</v>
       </c>
       <c r="D530" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
-        <v>159</v>
-      </c>
-      <c r="B531" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C531" s="6">
-        <v>189</v>
-      </c>
-      <c r="D531" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
-        <v>159</v>
-      </c>
-      <c r="B532" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C532" s="6">
-        <v>309</v>
-      </c>
-      <c r="D532" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C533" s="6">
-        <v>175</v>
+        <v>29.87</v>
       </c>
       <c r="D533" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="C534" s="6">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="D534" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C535" s="6">
-        <v>59.99</v>
+        <v>175</v>
       </c>
       <c r="D535" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>271</v>
+        <v>29</v>
       </c>
       <c r="C536" s="6">
-        <v>32.99</v>
+        <v>189</v>
       </c>
       <c r="D536" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C537" s="6">
-        <v>129</v>
+        <v>309</v>
       </c>
       <c r="D537" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="C538" s="6">
-        <v>149.99</v>
+        <v>175</v>
       </c>
       <c r="D538" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="C539" s="6">
-        <v>47.99</v>
+        <v>134</v>
       </c>
       <c r="D539" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C540" s="6">
-        <v>39.99</v>
+        <v>59.99</v>
       </c>
       <c r="D540" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>120</v>
+        <v>256</v>
       </c>
       <c r="C541" s="6">
-        <v>39.99</v>
+        <v>32.99</v>
       </c>
       <c r="D541" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>121</v>
+        <v>58</v>
+      </c>
+      <c r="C542" s="6">
+        <v>129</v>
       </c>
       <c r="D542" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="C543" s="6">
-        <v>36.950000000000003</v>
+        <v>149.99</v>
       </c>
       <c r="D543" t="s">
-        <v>188</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>144</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C544" s="6">
+        <v>47.99</v>
+      </c>
+      <c r="D544" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>144</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C545" s="6">
+        <v>39.99</v>
+      </c>
+      <c r="D545" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>304</v>
+        <v>144</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>8</v>
+        <v>105</v>
+      </c>
+      <c r="C546" s="6">
+        <v>39.99</v>
       </c>
       <c r="D546" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>304</v>
+        <v>144</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="D547" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>304</v>
+        <v>144</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>10</v>
+        <v>278</v>
+      </c>
+      <c r="C548" s="6">
+        <v>36.950000000000003</v>
       </c>
       <c r="D548" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
-        <v>304</v>
-      </c>
-      <c r="B549" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D549" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
-        <v>304</v>
-      </c>
-      <c r="B550" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D550" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="C551" s="6">
+        <v>18</v>
       </c>
       <c r="D551" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="C552" s="6">
+        <v>100</v>
       </c>
       <c r="D552" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C553" s="6">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="D553" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="C554" s="6">
+        <v>134</v>
       </c>
       <c r="D554" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C555" s="6">
+        <v>185</v>
       </c>
       <c r="D555" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="C556" s="6">
+        <v>155</v>
       </c>
       <c r="D556" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C557" s="6">
+        <v>239</v>
       </c>
       <c r="D557" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="C558" s="6">
+        <v>215</v>
       </c>
       <c r="D558" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="C559" s="6">
+        <v>189</v>
       </c>
       <c r="D559" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="C560" s="6">
+        <v>210</v>
       </c>
       <c r="D560" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="C561" s="6">
+        <v>285</v>
       </c>
       <c r="D561" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="C562" s="6">
+        <v>250</v>
       </c>
       <c r="D562" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="C563" s="6">
+        <v>19.989999999999998</v>
       </c>
       <c r="D563" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="C564" s="6">
+        <v>29.99</v>
       </c>
       <c r="D564" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C565" s="6">
+        <v>155</v>
       </c>
       <c r="D565" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="C566" s="6">
+        <v>190</v>
       </c>
       <c r="D566" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="C567" s="6">
+        <v>180</v>
       </c>
       <c r="D567" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>304</v>
-      </c>
-      <c r="B568" s="3">
-        <v>6102</v>
+        <v>289</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C568" s="6">
+        <v>170</v>
       </c>
       <c r="D568" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>296</v>
+        <v>30</v>
+      </c>
+      <c r="C569" s="6">
+        <v>199</v>
       </c>
       <c r="D569" t="s">
-        <v>284</v>
+        <v>142</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>297</v>
+        <v>31</v>
+      </c>
+      <c r="C570" s="6">
+        <v>260</v>
       </c>
       <c r="D570" t="s">
-        <v>284</v>
+        <v>142</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>298</v>
+        <v>34</v>
+      </c>
+      <c r="C571" s="6">
+        <v>399.99</v>
       </c>
       <c r="D571" t="s">
-        <v>284</v>
+        <v>142</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>299</v>
+        <v>37</v>
+      </c>
+      <c r="C572" s="6">
+        <v>89.23</v>
       </c>
       <c r="D572" t="s">
-        <v>284</v>
+        <v>142</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>304</v>
-      </c>
-      <c r="B573" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
+      </c>
+      <c r="B573" s="3">
+        <v>6102</v>
+      </c>
+      <c r="C573" s="6">
+        <v>44</v>
       </c>
       <c r="D573" t="s">
-        <v>284</v>
+        <v>144</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>301</v>
+        <v>281</v>
+      </c>
+      <c r="C574" s="6">
+        <v>64</v>
       </c>
       <c r="D574" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>70</v>
+        <v>282</v>
       </c>
       <c r="C575" s="6">
-        <v>26.99</v>
+        <v>69</v>
       </c>
       <c r="D575" t="s">
-        <v>160</v>
+        <v>269</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>270</v>
+        <v>283</v>
+      </c>
+      <c r="C576" s="6">
+        <v>72</v>
       </c>
       <c r="D576" t="s">
-        <v>160</v>
+        <v>269</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>71</v>
+        <v>284</v>
+      </c>
+      <c r="C577" s="6">
+        <v>77</v>
       </c>
       <c r="D577" t="s">
-        <v>160</v>
+        <v>269</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>72</v>
+        <v>285</v>
+      </c>
+      <c r="C578" s="6">
+        <v>90</v>
       </c>
       <c r="D578" t="s">
-        <v>160</v>
+        <v>269</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>271</v>
+        <v>286</v>
+      </c>
+      <c r="C579" s="6">
+        <v>114</v>
       </c>
       <c r="D579" t="s">
-        <v>160</v>
+        <v>269</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
+      </c>
+      <c r="C580" s="6">
+        <v>27.99</v>
       </c>
       <c r="D580" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>272</v>
+        <v>255</v>
+      </c>
+      <c r="C581" s="6">
+        <v>28.99</v>
       </c>
       <c r="D581" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
+      </c>
+      <c r="C582" s="6">
+        <v>39.99</v>
       </c>
       <c r="D582" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="C583" s="6">
+        <v>58</v>
       </c>
       <c r="D583" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>78</v>
+        <v>256</v>
+      </c>
+      <c r="C584" s="6">
+        <v>42.99</v>
       </c>
       <c r="D584" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
+      </c>
+      <c r="C585" s="6">
+        <v>129</v>
       </c>
       <c r="D585" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>302</v>
+        <v>257</v>
+      </c>
+      <c r="C586" s="6">
+        <v>180</v>
       </c>
       <c r="D586" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="C587" s="6">
+        <v>54.5</v>
       </c>
       <c r="D587" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>191</v>
+        <v>64</v>
+      </c>
+      <c r="C588" s="6">
+        <v>48.99</v>
       </c>
       <c r="D588" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="C589" s="6">
+        <v>39.99</v>
       </c>
       <c r="D589" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>80</v>
+        <v>61</v>
+      </c>
+      <c r="C590" s="6">
+        <v>64.989999999999995</v>
       </c>
       <c r="D590" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>304</v>
-      </c>
-      <c r="B591" s="3">
-        <v>6642</v>
+        <v>289</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C591" s="6">
+        <v>29.99</v>
       </c>
       <c r="D591" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="C592" s="6">
-        <v>40</v>
+        <v>28.99</v>
       </c>
       <c r="D592" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="D593" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>142</v>
+        <v>62</v>
+      </c>
+      <c r="C594" s="6">
+        <v>29.99</v>
       </c>
       <c r="D594" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>303</v>
+        <v>65</v>
+      </c>
+      <c r="C595" s="6">
+        <v>25.99</v>
       </c>
       <c r="D595" t="s">
-        <v>169</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>289</v>
+      </c>
+      <c r="B596" s="3">
+        <v>6642</v>
+      </c>
+      <c r="C596" s="6">
+        <v>50</v>
+      </c>
+      <c r="D596" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>289</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C597" s="6">
+        <v>40</v>
+      </c>
+      <c r="D597" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="C598" s="6">
-        <v>42.75</v>
+        <v>40</v>
       </c>
       <c r="D598" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="C599" s="6">
-        <v>68</v>
+        <v>39.99</v>
       </c>
       <c r="D599" t="s">
         <v>154</v>
@@ -9324,16 +9454,133 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="C600" s="6">
-        <v>82.2</v>
+        <v>90</v>
       </c>
       <c r="D600" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>291</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C603" s="6">
+        <v>42.75</v>
+      </c>
+      <c r="D603" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>291</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C604" s="6">
+        <v>68</v>
+      </c>
+      <c r="D604" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>291</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C605" s="6">
+        <v>82.2</v>
+      </c>
+      <c r="D605" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>293</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C607" s="6">
+        <v>10</v>
+      </c>
+      <c r="D607" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>293</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D608" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>293</v>
+      </c>
+      <c r="B609" s="3">
+        <v>4642</v>
+      </c>
+      <c r="C609" s="6">
+        <v>18.96</v>
+      </c>
+      <c r="D609" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>293</v>
+      </c>
+      <c r="B610" s="3">
+        <v>6642</v>
+      </c>
+      <c r="C610" s="6">
+        <v>22.37</v>
+      </c>
+      <c r="D610" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>294</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D613" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>294</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D614" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/vendor_map.xlsx
+++ b/vendor_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rygarcorp.com\shares\Cornerstone\Garretts Reports\Sales Report App\Excell Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C919CD9-15CA-45FA-AC3F-1C3FE8060E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39D4995-03BB-4DBC-AD00-6E7DF2FB8F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21150" xr2:uid="{5542AD97-7A4C-4C40-ABF5-82E45C8FC76F}"/>
+    <workbookView xWindow="76680" yWindow="-825" windowWidth="29040" windowHeight="15990" xr2:uid="{5542AD97-7A4C-4C40-ABF5-82E45C8FC76F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -969,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -992,6 +992,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6055176-08B8-4018-B9DF-7F26AB5DB49D}">
   <dimension ref="A1:K614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A580" workbookViewId="0">
-      <selection activeCell="F612" sqref="F612"/>
+    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="E320" sqref="E320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3238,7 +3241,7 @@
       <c r="A128" t="s">
         <v>156</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C128" s="6">
@@ -3253,7 +3256,7 @@
       <c r="A129" t="s">
         <v>156</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C129" s="6">
@@ -3268,7 +3271,7 @@
       <c r="A130" t="s">
         <v>156</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C130" s="6">
@@ -3283,7 +3286,7 @@
       <c r="A131" t="s">
         <v>156</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C131" s="6">
@@ -3298,7 +3301,7 @@
       <c r="A132" t="s">
         <v>156</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C132" s="6">
@@ -3313,7 +3316,7 @@
       <c r="A133" t="s">
         <v>156</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C133" s="6">
@@ -3328,7 +3331,7 @@
       <c r="A134" t="s">
         <v>156</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C134" s="6">
@@ -3343,7 +3346,7 @@
       <c r="A135" t="s">
         <v>156</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C135" s="6">
@@ -3358,7 +3361,7 @@
       <c r="A136" t="s">
         <v>156</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C136" s="6">
@@ -3373,7 +3376,7 @@
       <c r="A137" t="s">
         <v>156</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C137" s="6">
@@ -3388,7 +3391,7 @@
       <c r="A138" t="s">
         <v>156</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="9">
         <v>4430</v>
       </c>
       <c r="C138" s="6">
@@ -3403,7 +3406,7 @@
       <c r="A139" t="s">
         <v>156</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="9">
         <v>4442</v>
       </c>
       <c r="C139" s="6">
@@ -3418,7 +3421,7 @@
       <c r="A140" t="s">
         <v>156</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C140" s="6">
@@ -5940,7 +5943,7 @@
         <v>60</v>
       </c>
       <c r="D324" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
